--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_LapDat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang4\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang4\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="91">
   <si>
     <t>STT</t>
   </si>
@@ -271,6 +271,42 @@
   </si>
   <si>
     <t>PC+PM</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Xử lý lại khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -670,6 +706,30 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,30 +747,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1054,43 +1090,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1135,58 +1171,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1211,23 +1247,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,7 +1313,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1289,26 +1325,50 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="61">
+        <v>44666</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44696</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>202104011440923</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H7" s="48"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1397,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1426,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1395,7 +1455,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1484,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1513,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1484,7 +1544,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1513,7 +1573,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1542,7 +1602,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1571,7 +1631,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1689,7 +1749,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2190,7 +2250,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2222,7 +2282,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2801,13 +2861,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2819,6 +2872,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2829,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2862,43 +2922,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2943,58 +3003,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3019,23 +3079,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3093,7 +3153,7 @@
         <v>70</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3156,7 +3216,7 @@
         <v>70</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3166,26 +3226,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="61">
+        <v>44666</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44666</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868926033940781</v>
+      </c>
       <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H8" s="48"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3195,26 +3283,50 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="61">
+        <v>44666</v>
+      </c>
       <c r="C9" s="61"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="38">
+        <v>869627031758436</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H9" s="48"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3224,26 +3336,50 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="61">
+        <v>44666</v>
+      </c>
       <c r="C10" s="61"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="38">
+        <v>864811037291817</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H10" s="48"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3253,26 +3389,50 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="61">
+        <v>44666</v>
+      </c>
       <c r="C11" s="61"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="38">
+        <v>864811037282337</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H11" s="48"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3301,7 +3461,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3332,7 +3492,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3361,7 +3521,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3390,7 +3550,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3419,7 +3579,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3569,7 +3729,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3601,7 +3761,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -3750,7 +3910,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -3878,7 +4038,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4006,7 +4166,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4070,7 +4230,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4188,7 +4348,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -4423,7 +4583,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -4649,13 +4809,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4667,6 +4820,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4710,43 +4870,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4791,58 +4951,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4867,23 +5027,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4909,7 +5069,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4940,7 +5100,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4969,7 +5129,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4998,7 +5158,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5027,7 +5187,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5056,7 +5216,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5085,7 +5245,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5116,7 +5276,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5145,7 +5305,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5174,7 +5334,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5203,7 +5363,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6434,13 +6594,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6452,6 +6605,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="40" r:id="rId1"/>
@@ -706,6 +706,30 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -721,32 +745,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1090,43 +1090,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1171,58 +1171,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1247,23 +1247,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1544,7 +1544,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2861,6 +2861,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2872,13 +2879,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2889,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:R11"/>
+    <sheetView showZeros="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2922,43 +2922,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3003,58 +3003,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3079,23 +3079,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3153,7 +3153,7 @@
         <v>70</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3216,7 +3216,7 @@
         <v>70</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3286,7 +3286,9 @@
       <c r="B9" s="61">
         <v>44666</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44669</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>66</v>
       </c>
@@ -3326,7 +3328,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3339,7 +3341,9 @@
       <c r="B10" s="61">
         <v>44666</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44669</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>66</v>
       </c>
@@ -3379,7 +3383,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3392,7 +3396,9 @@
       <c r="B11" s="61">
         <v>44666</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44669</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>66</v>
       </c>
@@ -3432,7 +3438,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3461,7 +3467,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3492,7 +3498,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3521,7 +3527,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3550,7 +3556,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3579,7 +3585,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4809,6 +4815,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4820,13 +4833,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4870,43 +4876,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4951,58 +4957,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5027,23 +5033,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="73"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5069,7 +5075,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5100,7 +5106,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5129,7 +5135,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5158,7 +5164,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5187,7 +5193,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5216,7 +5222,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5245,7 +5251,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5276,7 +5282,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5305,7 +5311,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5334,7 +5340,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5363,7 +5369,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6594,6 +6600,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6605,13 +6618,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_LapDat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang4\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang4\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="40" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -307,6 +307,33 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t>LE.2.00.---25.200220</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>Le.3.21.---04.211125</t>
+  </si>
+  <si>
+    <t>125.212.203.114,13232</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1378,23 +1405,49 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="61">
+        <v>44672</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44674</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183034572409</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H8" s="48"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
       <c r="U8" s="74"/>
@@ -1407,23 +1460,49 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="61">
+        <v>44672</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44674</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183035889554</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H9" s="48"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="53" t="s">
+        <v>94</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="74"/>
@@ -1436,23 +1515,49 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="61">
+        <v>44674</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44674</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>860157040204700</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H10" s="48"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="53" t="s">
+        <v>67</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="74"/>
@@ -1465,23 +1570,49 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="61">
+        <v>44674</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44674</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183033787347</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H11" s="48"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="74"/>
@@ -1494,23 +1625,49 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="61">
+        <v>44674</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44674</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>860157040206838</v>
+      </c>
       <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H12" s="48"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="53" t="s">
+        <v>67</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="73" t="s">
@@ -1749,7 +1906,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2218,7 +2375,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2282,7 +2439,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2889,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3448,12 +3605,22 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="61">
+        <v>44672</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44674</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="38">
+        <v>864811036941362</v>
+      </c>
       <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H12" s="48"/>
       <c r="I12" s="53"/>
       <c r="J12" s="1"/>
@@ -3479,23 +3646,49 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="61">
+        <v>44674</v>
+      </c>
+      <c r="C13" s="61">
+        <v>44674</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="38">
+        <v>868926033940781</v>
+      </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H13" s="48"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
       <c r="U13" s="74"/>
@@ -3735,7 +3928,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4044,7 +4237,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4236,7 +4429,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_LapDat.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>125.212.203.114,13232</t>
+  </si>
+  <si>
+    <t>Lỗi mạch</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>Thểt</t>
   </si>
 </sst>
 </file>
@@ -733,6 +742,30 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -750,30 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,43 +1126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1198,58 +1207,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1274,23 +1283,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1340,7 +1349,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1395,7 +1404,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1450,7 +1459,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1505,7 +1514,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1560,7 +1569,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1624,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1670,7 +1679,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1701,7 +1710,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1730,7 +1739,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1759,7 +1768,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1788,7 +1797,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3018,13 +3027,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3036,6 +3038,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3046,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3079,43 +3088,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3160,58 +3169,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3236,23 +3245,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3310,7 +3319,7 @@
         <v>70</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3373,7 +3382,7 @@
         <v>70</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3430,7 +3439,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3485,7 +3494,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3540,7 +3549,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3595,7 +3604,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3623,18 +3632,30 @@
       </c>
       <c r="H12" s="48"/>
       <c r="I12" s="53"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>101</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3691,7 +3712,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3720,7 +3741,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3749,7 +3770,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3778,7 +3799,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3928,7 +3949,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4237,7 +4258,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4429,7 +4450,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4547,7 +4568,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -5008,13 +5029,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5026,6 +5040,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5069,43 +5090,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5150,58 +5171,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5226,23 +5247,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5268,7 +5289,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5299,7 +5320,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5328,7 +5349,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5357,7 +5378,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5386,7 +5407,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5415,7 +5436,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5444,7 +5465,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5475,7 +5496,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5504,7 +5525,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5533,7 +5554,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5562,7 +5583,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6793,13 +6814,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6811,6 +6825,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
